--- a/biology/Botanique/Medinilla_(plante)/Medinilla_(plante).xlsx
+++ b/biology/Botanique/Medinilla_(plante)/Medinilla_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Medinilla est un genre de plantes de la famille des Melastomataceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (29 octobre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (29 octobre 2019) :
 Medinilla alternifolia Blume
 Medinilla arboricola F.C. How
 Medinilla assamica (C.B. Clarke) C. Chen
@@ -548,7 +562,7 @@
 Medinilla venosa (Blume) Blume
 Medinilla verrucosa Blume
 Medinilla waterhousei Seem.
-Selon Catalogue of Life                                   (29 octobre 2019)[3] :
+Selon Catalogue of Life                                   (29 octobre 2019) :
 Medinilla acutialata Pocs &amp; Khoi
 Medinilla acutissimifolia H. Perrier
 Medinilla aggregata Bak. fil.
@@ -924,7 +938,7 @@
 Medinilla waterhousei Seem.
 Medinilla whitfordii Merr.
 Medinilla zoster Veldkamp
-Selon The Plant List            (29 octobre 2019)[4] :
+Selon The Plant List            (29 octobre 2019) :
 Medinilla acutissimifolia H. Perrier
 Medinilla albiflora H. Perrier
 Medinilla ambrensis Jum. &amp; H. Perrier
@@ -1010,7 +1024,7 @@
 Medinilla viguieri H. Perrier
 Medinilla viscoides (Lindl.) Triana
 Medinilla vohipararensis Jum. &amp; H. Perrier
-Selon Tropicos                                           (29 octobre 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 octobre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Medinilla acutissimifolia H. Perrier
 Medinilla africana Cogn.
 Medinilla afromontana Lebrun &amp; Taton
